--- a/Data/Textbausteine_LENA_Februar2022.xlsx
+++ b/Data/Textbausteine_LENA_Februar2022.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Volksinitiative "Tier- und Menschenversuchsverbot" angenommen. </t>
   </si>
   <si>
-    <t>#Gemeinde_f souhaite interdire l'expérimentation animale. La commune a accepté à #JaStimmenInProZent pour cent l'initiative populaire qui l'exige.</t>
+    <t>#Gemeinde_f souhaite interdire l'expérimentation animale. La commune a accepté à #JaStimmenInProzent pour cent l'initiative populaire qui l'exige.</t>
   </si>
   <si>
     <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, l'Iniziativa "Sì al divieto degli esperimenti sugli animali e sugli esseri umani".</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung vom 16. Februar 1992 über die Initiative "zur drastischen und schrittweisen Einschränkung der Tierversuche (Weg vom Tierversuch)" in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t>Il n'est pas possible de comparer les résultats de cette votations à celle du 16 février 1992 en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
+    <t>Il n'est pas possible de comparer les résultats de cette votation à celle du 16 février 1992 en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
   </si>
   <si>
     <t>Impossibile comparare il risultato odierno di #Gemeinde_i con quello del 1992. Questo a causa di fusioni fra varie realtà comunali.</t>
@@ -526,7 +526,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Initiative "Kinder und Jugendliche ohne Tabakwerbung" mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
   </si>
   <si>
-    <t>#Gemeinde_f souhaite restreindre plus fortement la publicité pour le tabac. La commune a approuvé par #JaStimmenInProzent pour cent de voix l'initiative soumise au vote ce dimanche.</t>
+    <t>#Gemeinde_f souhaite restreindre plus fortement la publicité pour le tabac. La commune a approuvé par #JaStimmenInProzent pour cent des voix l'initiative soumise au vote ce dimanche.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'iniziativa Fanciulli e adolescenti senza pubblicità per il tabacco è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
@@ -580,7 +580,7 @@
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Initiative "Kinder und Jugendliche ohne Tabakwerbung" angenommen. </t>
   </si>
   <si>
-    <t>Initiative sur le tabac: #JaStimmenInProzent des citoyens de #Gemeinde_f ont suivi les arguments des initiants et approuvé le texte.</t>
+    <t>Initiative sur le tabac: #JaStimmenInProzent pour cent des citoyens de #Gemeinde_f ont suivi les arguments des initiants et approuvé le texte.</t>
   </si>
   <si>
     <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, l'iniziativa Fanciulli e adolescenti senza pubblicità per il tabacco.</t>
@@ -652,7 +652,7 @@
     <t>#Gemeinde_d hat die Initiative "Kinder und Jugendliche ohne Tabakwerbung" mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>#Gemeinde_f rejette par #NeinStimmenInProzent pour cent des voix l'initiative l'initiative "Oui à la protection des enfants et des jeunes contre la publicité du tabac".</t>
+    <t>#Gemeinde_f rejette par #NeinStimmenInProzent pour cent des voix l'initiative "Oui à la protection des enfants et des jeunes contre la publicité du tabac".</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'iniziativa Fanciulli e adolescenti senza pubblicità per il tabacco è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
@@ -781,7 +781,7 @@
     <t>Im Vergleich zur letzten ähnlichen Abstimmung vom 28. November 1993 über die Initiative "zur Verminderung der Tabakprobleme" hat die Zustimmung zum Verbot von Tabakwerbung in #Gemeinde_d abgenommen. Damals betrug der Ja-Stimmen-Anteil noch #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Par rapport à l'initiative du 28 novembre 1993, le taux des adversaires de la publicité pour le tabac a reculé à #Gemeinde_f. L'initiative "pour la prévention des problèmes liés au tabac" avait alors recueilli #HistStimmenInProzent pour cent de oui.</t>
+    <t>Par rapport à l'initiative du 28 novembre 1993, le taux des adversaires de la publicité pour le tabac a reculé à #Gemeinde_f. L'initiative "pour la prévention des problèmes liés au tabac" avait alors recueilli #HistJaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>A #Gemeinde_i l'accettazione di diveiti alla pubblicità è diminuita nel tempo. Nel 1993 gli elettori di questo comune avevano detto sì - con il #HistJaStimmenInProzent percento dei voti – a una simile iniziativa.</t>
@@ -865,10 +865,10 @@
     <t>Damit hat in #Gemeinde_d seit der Abstimmung vom 13. Juni ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Verbot der Tabakwerbung abgelehnt.</t>
   </si>
   <si>
-    <t>En près de trente ans, les habitants de #Gemeinde_f ont changé de camp sur ce sujet. Le 28 novembre 1993, ils avaient encore non à #HistNeinStimmenInProzent pour cent à l'initiative "pour la prévention des problèmes liés au tabac".</t>
-  </si>
-  <si>
-    <t>#Gemeinde_i ha cambiato fazione: nel 1993 il comune aveva rifiutato il divieto alla pubblicità , mentre ora la approva.</t>
+    <t>En près de trente ans, les habitants de #Gemeinde_f ont changé de camp sur ce sujet. Le 28 novembre 1993, ils avaient encore voté non à #HistNeinStimmenInProzent pour cent à l'initiative "pour la prévention des problèmes liés au tabac".</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i ha cambiato fazione: nel 1993 il comune aveva rifiutato il divieto alla pubblicità , mentre ora lo approva.</t>
   </si>
   <si>
     <t>"Verminderung der Tabak- und Alkoholprobleme" (Abst. Nov. 1993) Nein, "Schutz vor Tabakwerbung" (Abst. Februar 2022) Ja</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung vom 28. November 1993 über die Initiative "zur Verminderung der Tabakprobleme" in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t>Il n'est pas possible de comparer les résultats de cette votations à celle du 28 novembre 1993 sur l'initiative "pour la prévention des problèmes liés au tabac*, en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
+    <t>Il n'est pas possible de comparer les résultats de cette votation à celle du 28 novembre 1993 sur l'initiative "pour la prévention des problèmes liés au tabac", en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
   </si>
   <si>
     <t>Impossibile comparare il risultato odierno di #Gemeinde_i con quello di giugno. Questo a causa di fusioni fra varie realtà comunali.</t>
@@ -925,7 +925,7 @@
     <t>Das Bundesgesetz über die Stempelabgaben ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont favorables à la suppression du droit de timbre. Ils ont dit oui à #JaStimmenInProzent pour cent</t>
+    <t>A #Gemeinde_f, les habitants sont favorables à la suppression du droit de timbre. Ils ont dit oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono espressi a favore della legge federale sulle tasse di bollo. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
@@ -967,7 +967,7 @@
     <t>Nel comune di #Gemeinde_i la legge federale sulle tasse di bollo è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
   </si>
   <si>
-    <t>Ja zum Covid-19-Gestz in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist Vorlage angenommen worden.</t>
+    <t>Ja zum Bundesgesetz über die Stempelabgaben in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist Vorlage angenommen worden.</t>
   </si>
   <si>
     <t>#Gemeinde_f veut mettre fin au droit de timbre. Dans cette commune, #JaStimmenAbsolut ont voté en faveur de la modification de la loi, alors que #NeinStimmenAbsolut l'ont rejetée.</t>
@@ -1096,7 +1096,7 @@
     <t>#Gemeinde_d hat die Vorlage schweizweit mit dem zweithöchsten Ja-Anteil zugestimmt: #JaStimmenInProzent Prozent haben sich für die Vorlage ausgesprochen.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus fortes approbations de Suisse pour la modification de la loi sur le droit de timbre. pour cent.  </t>
+    <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus fortes approbations de Suisse pour la modification de la loi sur le droit de timbre: #JaStimmenInProzent pour cent ont dit oui au texte.  </t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla legge federale sulle tasse di bollo. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
@@ -1258,7 +1258,7 @@
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung dem Massnahmenpaket zugunsten der Medien zugestimmt. Sie wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont favorables au paquet d'aide aux médias, avec #JaStimmenInProzent pour cent de oui.</t>
+    <t>A #Gemeinde_f, les habitants sont favorables au train de mesures en faveur des médias, avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono espressi a favore della legge sulle misure a favore dei media. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
@@ -1276,7 +1276,7 @@
     <t>Ja zum Massnahmenpaket zugunsten der Medien in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
-    <t>Le paquet d'aide aux médias passe la rampe à #Gemeinde_f avec #JaStimmenInProzent pour cent de oui.</t>
+    <t>Le train de mesures en faveur des médias passe la rampe à #Gemeinde_f avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>Da #Gemeinde_i è arrivato un "sì" alle urne per la legge sulle misure a favore dei media. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
@@ -1339,7 +1339,7 @@
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung das Massnahmenpaket zugunsten der Medien abgelehnt. Die Vorlage wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont défavorables au paquet d'aide aux médias avec #NeinStimmenInProzent pour cent de non.</t>
+    <t>A #Gemeinde_f, les habitants sont défavorables au train de mesures en faveur des médias avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
     <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno respinto la legge sulle misure a favore dei media.</t>
@@ -1384,7 +1384,7 @@
     <t>Nein zum Massnahmenpaket zugunsten der Medien in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>Le paquet d'aide aux médias est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le projet.</t>
+    <t>Le train de mesures en faveur des médias est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le projet.</t>
   </si>
   <si>
     <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge sulle misure a favore dei media.</t>
@@ -1411,7 +1411,7 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Massnahmenpaket zugunsten der Medien abgelehnt.</t>
   </si>
   <si>
-    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont refusé le paquet d'aide aux médias.</t>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont refusé le train de mesures en faveur des médias.</t>
   </si>
   <si>
     <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge sulle misure a favore dei media.</t>
@@ -1636,7 +1636,7 @@
     <t>#Gemeinde_f accepte de durcir les conditions pour obtenir un logement social. La commune a dit oui à #JaStimmenInProzent pour cent au projet soumis au vote ce dimanche.</t>
   </si>
   <si>
-    <t>#Gemeinde_f soutient à #JaStimmenInProzent la révision de la loi générale sur le logement et la protection des locataires.</t>
+    <t>#Gemeinde_f soutient à #JaStimmenInProzent pour cent la révision de la loi générale sur le logement et la protection des locataires.</t>
   </si>
   <si>
     <t>Pour #Gemeinde_f, il faut durcir les critères permettant d'obtenir un logement social. Ses habitants ont accepté par #JaStimmenInProzent pour cent des voix le projet soumis aux urnes ce dimanche.</t>
@@ -1648,7 +1648,7 @@
     <t>Les habitants de #Gemeinde_f refusent de renforcer les critères permettant d'obtenir un logement social. Ils ont dit non avec #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
-    <t>Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent des voix à la modification de la loi générale sur le logement et la protection des locataires.</t>
+    <t>#Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent des voix à la modification de la loi générale sur le logement et la protection des locataires.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les citoyens refusent de durcir les conditions d'accès à un logement social. Ils ont dit non par #NeinStimmenInProzent pour cent des voix.</t>
@@ -1675,13 +1675,13 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
   </si>
   <si>
-    <t>#Gemeinde_f a approuvé par #JaStimmenHauptvorlageInProzent pour cent des voix l'initiative exigeant davantage de transparence dans le financement des partis politiques. Elle soutient le contre-projet du Parlement par #JaStimmenGegenvorschlagInProzent pour cent des voix. Sa préférence va à l'initiative du Parti socialiste.</t>
+    <t>#Gemeinde_f a approuvé par #JaStimmenHauptvorlageInProzent pour cent des voix l'initiative exigeant davantage de transparence dans le financement des partis politiques. La commune soutient le contre-projet du Parlement par #JaStimmenGegenvorschlagInProzent pour cent des voix. Sa préférence va à l'initiative du Parti socialiste.</t>
   </si>
   <si>
     <t>Initative und Contre-projet angenommen, deutlicheres Ja für Initiative</t>
   </si>
   <si>
-    <t>#Gemeinde_f dit deux fois oui à la transparence du financement des partis politiques. La commune soutient à #JaStimmenHauptvorlageInStimmen pour cent des voix l'initiative du PS et à #JaStimmenGegenvorschlag pour cent des voix le contre-projet du Parlement. Elle privilégie le texte du Parti socialiste.</t>
+    <t>#Gemeinde_f dit deux fois oui à la transparence du financement des partis politiques. La commune soutient à #JaStimmenHauptvorlageInProzent pour cent des voix l'initiative du PS et à #JaStimmenGegenvorschlagInProzent pour cent des voix le contre-projet du Parlement. Elle privilégie le texte du Parti socialiste.</t>
   </si>
   <si>
     <t>Double oui à #Gemeinde_f sur la transparence du financement des partis politiques. Adoptée par #JaStimmenHauptvorlageInProzent pour cent des suffrages, l'initiative du Parti socialiste est préférée au contre-projet élaboré par le Parlement. Celui-ci récolte #JaStimmenGegenvorschlagInProzent pour cent des voix.</t>
@@ -1690,7 +1690,7 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidGegenvorschlag</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f approuvent les deux projets liés à la transparence du financement des partis. Ils disent oui à l'initiative du PS par #JaStimmenHauptvorlageInProzent pour cent des voix. Mais ils lui préfèrent le contre-projet du Parlement, qui récolte #JaStimmenGegenvorschlagInProzent pour cent des suffrages.</t>
+    <t>Les habitants de #Gemeinde_f approuvent les deux projets sur la transparence du financement des partis. Ils disent oui à l'initiative du PS par #JaStimmenHauptvorlageInProzent pour cent des voix. Mais ils lui préfèrent le contre-projet du Parlement, qui récolte #JaStimmenGegenvorschlagInProzent pour cent des suffrages.</t>
   </si>
   <si>
     <t>Initative und Contre-projet angenommen, deutlicheres Ja für Contre-project</t>
@@ -1705,7 +1705,7 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagNein</t>
   </si>
   <si>
-    <t>Les citoyens de #Gemeinde_f approuvent à #JaStimmenHauptvorlageInProzent pour cent l'initiative du Parti soclaiste exigeant davantage de transparence dans le financement des partis politiques et des comités de campagne. Ils rejettent en revanche le contre-projet du Parlement par #NeinStimmenGegenvorschlagInProzent pour cent des suffrages.</t>
+    <t>Les citoyens de #Gemeinde_f approuvent à #JaStimmenHauptvorlageInProzent pour cent l'initiative du Parti socialiste exigeant davantage de transparence dans le financement des partis politiques et des comités de campagne. Ils rejettent en revanche le contre-projet du Parlement par #NeinStimmenGegenvorschlagInProzent pour cent des suffrages.</t>
   </si>
   <si>
     <t>Initative angenommen, Contre-projet abgelehnt</t>
@@ -1720,7 +1720,7 @@
     <t>Intro_HauptvorlageNein_GegenvorschlagJa</t>
   </si>
   <si>
-    <t>L'initiative socialiste sur la transparence du financement des partis politiques ne passe pas la rampe à #Gemeinde_f. Le texte est rejeté par #NeinStimmenHauptvorlageInProzent pour cent des votants. La commune approuve en revanche le contre-projet du Parlement par #JaStimmenGegenvorschalgInProzent pour cent des voix.</t>
+    <t>L'initiative socialiste sur la transparence du financement des partis politiques ne passe pas la rampe à #Gemeinde_f. Le texte est rejeté par #NeinStimmenHauptvorlageInProzent pour cent des votants. La commune approuve en revanche le contre-projet du Parlement par #JaStimmenGegenvorschlagInProzent pour cent des voix.</t>
   </si>
   <si>
     <t>Initative abgelehnt, Contre-projet angenommen</t>
@@ -2148,9 +2148,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2203,6 +2200,9 @@
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -7011,7 +7011,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>574</v>
       </c>
       <c r="C2" s="6"/>
@@ -7032,7 +7032,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>576</v>
       </c>
       <c r="C4" s="6"/>
@@ -7134,7 +7134,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -7147,7 +7147,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -7160,20 +7160,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -7186,20 +7186,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -10142,7 +10142,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>587</v>
       </c>
       <c r="C2" s="6"/>
@@ -10163,7 +10163,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="6"/>
@@ -10265,7 +10265,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -10278,7 +10278,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -10291,20 +10291,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -10317,20 +10317,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -10343,10 +10343,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="28"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20">
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21">
       <c r="B21" s="18"/>
@@ -13273,7 +13273,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>600</v>
       </c>
       <c r="C2" s="6"/>
@@ -13294,7 +13294,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>602</v>
       </c>
       <c r="C4" s="6"/>
@@ -13396,7 +13396,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -13409,7 +13409,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -13422,20 +13422,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -13448,20 +13448,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -24121,7 +24121,7 @@
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="5" t="s">
         <v>314</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -24365,7 +24365,7 @@
       <c r="E25" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
@@ -24383,7 +24383,7 @@
       <c r="E26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
@@ -24401,7 +24401,7 @@
       <c r="E27" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
@@ -24419,10 +24419,10 @@
       <c r="E28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -24437,10 +24437,10 @@
       <c r="E29" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -24455,10 +24455,10 @@
       <c r="E30" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -24473,10 +24473,10 @@
       <c r="E31" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -24491,16 +24491,16 @@
       <c r="E32" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>393</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -24509,16 +24509,16 @@
       <c r="E33" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>398</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -24527,7 +24527,7 @@
       <c r="E34" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35">
       <c r="B35" s="18"/>
@@ -28446,7 +28446,7 @@
       <c r="B3" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>405</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -28460,7 +28460,7 @@
       <c r="B4" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>408</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -28474,7 +28474,7 @@
       <c r="B5" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>411</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -28488,7 +28488,7 @@
       <c r="B6" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>414</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -28502,7 +28502,7 @@
       <c r="B7" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>417</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -28516,7 +28516,7 @@
       <c r="B8" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>420</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -28530,7 +28530,7 @@
       <c r="B9" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>423</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -28547,7 +28547,7 @@
       <c r="B10" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>426</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -28561,7 +28561,7 @@
       <c r="B11" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>429</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -28578,7 +28578,7 @@
       <c r="B12" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>432</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -28592,7 +28592,7 @@
       <c r="B13" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>435</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -28606,7 +28606,7 @@
       <c r="B14" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -28620,7 +28620,7 @@
       <c r="B15" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>441</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -28634,7 +28634,7 @@
       <c r="B16" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>444</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -28649,7 +28649,7 @@
       <c r="B17" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>447</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -28663,7 +28663,7 @@
       <c r="B18" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>450</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -28680,7 +28680,7 @@
       <c r="B19" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>453</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -28694,7 +28694,7 @@
       <c r="B20" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>456</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -28711,7 +28711,7 @@
       <c r="B21" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>459</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -28728,7 +28728,7 @@
       <c r="B22" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>462</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -28745,7 +28745,7 @@
       <c r="B23" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>465</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -28762,7 +28762,7 @@
       <c r="B24" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>468</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -28779,7 +28779,7 @@
       <c r="B25" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -28788,7 +28788,7 @@
       <c r="E25" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
@@ -28797,7 +28797,7 @@
       <c r="B26" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>474</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -28806,7 +28806,7 @@
       <c r="E26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
@@ -28815,7 +28815,7 @@
       <c r="B27" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>477</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -28824,7 +28824,7 @@
       <c r="E27" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
@@ -28833,7 +28833,7 @@
       <c r="B28" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>480</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -28842,16 +28842,16 @@
       <c r="E28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>482</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -28860,16 +28860,16 @@
       <c r="E29" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>483</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -28878,16 +28878,16 @@
       <c r="E30" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>383</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -28896,16 +28896,16 @@
       <c r="E31" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>484</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -28914,16 +28914,16 @@
       <c r="E32" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>485</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -28932,16 +28932,16 @@
       <c r="E33" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>398</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -28950,7 +28950,7 @@
       <c r="E34" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35">
       <c r="B35" s="18"/>
@@ -31879,7 +31879,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>486</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -31896,7 +31896,7 @@
       <c r="B3" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>489</v>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>490</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -32024,7 +32024,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -32039,7 +32039,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -32054,7 +32054,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -32069,7 +32069,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -32084,7 +32084,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -32099,7 +32099,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -35046,7 +35046,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>520</v>
       </c>
       <c r="C2" s="6"/>
@@ -35067,7 +35067,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>522</v>
       </c>
       <c r="C4" s="6"/>
@@ -35169,7 +35169,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -35182,7 +35182,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -35195,7 +35195,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -35208,7 +35208,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -35221,7 +35221,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -35234,7 +35234,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -38177,7 +38177,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>533</v>
       </c>
       <c r="C2" s="6"/>
@@ -38189,7 +38189,7 @@
       <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>534</v>
       </c>
       <c r="C3" s="6"/>
@@ -38202,7 +38202,7 @@
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>535</v>
       </c>
       <c r="C4" s="6"/>
@@ -41172,7 +41172,7 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="6" t="s">
         <v>539</v>
       </c>
@@ -41185,7 +41185,7 @@
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>540</v>
       </c>
@@ -41216,7 +41216,7 @@
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="6" t="s">
         <v>543</v>
       </c>
@@ -41229,7 +41229,7 @@
       <c r="A10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
         <v>544</v>
       </c>
@@ -41265,7 +41265,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B13" s="6"/>
@@ -41278,7 +41278,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="20"/>
@@ -41291,7 +41291,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B15" s="6"/>
@@ -41304,7 +41304,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="6"/>
@@ -41317,7 +41317,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="6"/>
@@ -41330,7 +41330,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="6"/>
@@ -41370,13 +41370,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -41409,7 +41409,7 @@
       <c r="AA1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="20"/>
@@ -41417,7 +41417,7 @@
         <v>550</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>551</v>
       </c>
       <c r="F2" s="18"/>
@@ -41444,7 +41444,7 @@
       <c r="AA2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>549</v>
       </c>
       <c r="B3" s="20"/>
@@ -41477,7 +41477,7 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>549</v>
       </c>
       <c r="B4" s="20"/>
@@ -41510,7 +41510,7 @@
       <c r="AA4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>554</v>
       </c>
       <c r="B5" s="20"/>
@@ -41518,7 +41518,7 @@
         <v>555</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>556</v>
       </c>
       <c r="F5" s="18"/>
@@ -41545,7 +41545,7 @@
       <c r="AA5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>554</v>
       </c>
       <c r="B6" s="20"/>
@@ -41578,7 +41578,7 @@
       <c r="AA6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>554</v>
       </c>
       <c r="B7" s="20"/>
@@ -41611,7 +41611,7 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>559</v>
       </c>
       <c r="B8" s="20"/>
@@ -41619,7 +41619,7 @@
         <v>560</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>561</v>
       </c>
       <c r="F8" s="18"/>
@@ -41646,7 +41646,7 @@
       <c r="AA8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>559</v>
       </c>
       <c r="B9" s="20"/>
@@ -41679,10 +41679,10 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="6" t="s">
         <v>563</v>
       </c>
@@ -41715,12 +41715,12 @@
       <c r="A11" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="6" t="s">
         <v>565</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>566</v>
       </c>
       <c r="F11" s="18"/>
@@ -41750,7 +41750,7 @@
       <c r="A12" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="6" t="s">
         <v>567</v>
       </c>
@@ -41783,7 +41783,7 @@
       <c r="A13" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="6" t="s">
         <v>568</v>
       </c>
@@ -41821,7 +41821,7 @@
         <v>570</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>571</v>
       </c>
       <c r="F14" s="18"/>

--- a/Data/Textbausteine_LENA_Februar2022.xlsx
+++ b/Data/Textbausteine_LENA_Februar2022.xlsx
@@ -541,7 +541,7 @@
     <t>Sì all'iniziativa Fanciulli e adolescenti senza pubblicità per il tabacco nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
-    <t>Die Gemeinde #Gemeinde_d hat die Initiative "Für eine Schweiz ohne synthetische Pestizide" mit #JaStimmenInProzent Prozent angenommen.</t>
+    <t>Die Gemeinde #Gemeinde_d hat die Initiative  "Kinder und Jugendliche ohne Tabakwerbung" mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f sont favorables à une meilleure protection des jeunes face à la publicité pour le tabac. Ils ont dit oui à #JaStimmenInProzent pour cent à l'initiative qui l'exige.</t>
@@ -19560,7 +19560,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="6" t="s">

--- a/Data/Textbausteine_LENA_Februar2022.xlsx
+++ b/Data/Textbausteine_LENA_Februar2022.xlsx
@@ -862,7 +862,7 @@
     <t>"Verminderung der Tabak- und Alkoholprobleme" (Abst. Nov. 1993) und "Schutz vor Tabakwerbung" (Abst. Februar 2022) gleicher Nein-Anteil</t>
   </si>
   <si>
-    <t>Damit hat in #Gemeinde_d seit der Abstimmung vom 13. Juni ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Verbot der Tabakwerbung abgelehnt.</t>
+    <t>Damit hat in #Gemeinde_d seit der Abstimmung vom 28. November 1993 ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Verbot der Tabakwerbung abgelehnt.</t>
   </si>
   <si>
     <t>En près de trente ans, les habitants de #Gemeinde_f ont changé de camp sur ce sujet. Le 28 novembre 1993, ils avaient encore voté non à #HistNeinStimmenInProzent pour cent à l'initiative "pour la prévention des problèmes liés au tabac".</t>
